--- a/ExcelToLua/ExcelToLua/bin/Debug/excels/Test2.xlsx
+++ b/ExcelToLua/ExcelToLua/bin/Debug/excels/Test2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>唯一ID</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,13 +420,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -452,49 +467,69 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
     </row>
